--- a/example-comp/fish-data-comp-hatchery-fields.xlsx
+++ b/example-comp/fish-data-comp-hatchery-fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edlabola\code\fish-data-comp\example-comp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85BCAB9-4040-4939-8E14-9775063D782F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489B96FB-64BF-4D01-BB37-70513D2176A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{58A22057-1635-412A-8133-84FB790BB4D0}"/>
+    <workbookView xWindow="84" yWindow="3252" windowWidth="22572" windowHeight="9048" xr2:uid="{58A22057-1635-412A-8133-84FB790BB4D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
   <si>
     <t>containingTable</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>98 = N/A; 2000-2999 = CRITFC; 4000-4999 IDFG; 610-709 and 6000-6999 = WDFW; 558-599 and 5000-5999 = ODFW; 710-729 and 800-899 = MFWP; 730-769 = CDFG</t>
+  </si>
+  <si>
+    <t>Year (yyyy)</t>
   </si>
 </sst>
 </file>
@@ -303,24 +306,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -335,13 +326,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,7 +648,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -763,32 +751,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -821,113 +809,113 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -960,226 +948,226 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="E18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>79</v>
       </c>
     </row>
